--- a/Data/EC/NIT-9004227572.xlsx
+++ b/Data/EC/NIT-9004227572.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DBA5F259-459E-4CEF-BFDB-ED104FC25D52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2A389A3A-6988-4ACF-92C8-33206E82C5F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{A5EC0C49-DCEC-4BDB-A239-E2C1B2C88C3F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{89FCCE8A-CDE4-48BE-BA30-DE3FFC084307}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="81">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,31 +65,187 @@
     <t>CC</t>
   </si>
   <si>
+    <t>1052073848</t>
+  </si>
+  <si>
+    <t>LUIS ANGEL ARANGO LAGUNA</t>
+  </si>
+  <si>
+    <t>2507</t>
+  </si>
+  <si>
+    <t>1047439797</t>
+  </si>
+  <si>
+    <t>JOHN JAIRO NARANJO PIANETA</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>13851949</t>
+  </si>
+  <si>
+    <t>MARIO ALIRIO MORENO ARIZA</t>
+  </si>
+  <si>
+    <t>2506</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>32834243</t>
+  </si>
+  <si>
+    <t>DERLYS PATRICIA ESCOBAR ZAPATA</t>
+  </si>
+  <si>
+    <t>1051358252</t>
+  </si>
+  <si>
+    <t>YESICA BECERRA OROZCO</t>
+  </si>
+  <si>
+    <t>30767794</t>
+  </si>
+  <si>
+    <t>RITA HELENA CASTRO RINCON</t>
+  </si>
+  <si>
+    <t>1051417614</t>
+  </si>
+  <si>
+    <t>MELANIS MUÑIZ UTRIA</t>
+  </si>
+  <si>
+    <t>26670263</t>
+  </si>
+  <si>
+    <t>MARIA MATILDE JIMENEZ VASQUEZ</t>
+  </si>
+  <si>
+    <t>45715222</t>
+  </si>
+  <si>
+    <t>ANGELA HERNANDEZ ALCALA</t>
+  </si>
+  <si>
     <t>22831451</t>
   </si>
   <si>
     <t>LIDA ROSA ARRIETA LOPEZ</t>
   </si>
   <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
     <t>2111</t>
   </si>
   <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>1047439797</t>
-  </si>
-  <si>
-    <t>JOHN JAIRO NARANJO PIANETA</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>2307</t>
+    <t>1050397409</t>
+  </si>
+  <si>
+    <t>SANDY PAOLA GONZALEZ GIL</t>
+  </si>
+  <si>
+    <t>1002355843</t>
+  </si>
+  <si>
+    <t>SHIRLEY BENAVIDEZ GARCIA</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>1065908382</t>
+  </si>
+  <si>
+    <t>NEIDIS AGUIRRE MENESES</t>
+  </si>
+  <si>
+    <t>1143335232</t>
+  </si>
+  <si>
+    <t>NERY DEL ROSARIO HERNANDEZ BARRIOS</t>
+  </si>
+  <si>
+    <t>1052076217</t>
+  </si>
+  <si>
+    <t>LUIS JAVIER TORRES VILORIA</t>
+  </si>
+  <si>
+    <t>1050005370</t>
+  </si>
+  <si>
+    <t>MARIA DE JESUS TORRENEGRA JULIO</t>
+  </si>
+  <si>
+    <t>1050036414</t>
+  </si>
+  <si>
+    <t>DEREIKIS REYES ANILLO</t>
+  </si>
+  <si>
+    <t>1047398404</t>
+  </si>
+  <si>
+    <t>GINA PAOLA RUA CORDERO</t>
+  </si>
+  <si>
+    <t>1051444556</t>
+  </si>
+  <si>
+    <t>KARINA PAOLA QUINTANA FIGUEROA</t>
+  </si>
+  <si>
+    <t>1002489364</t>
+  </si>
+  <si>
+    <t>ANY LUZ TOVAR MERIÑO</t>
+  </si>
+  <si>
+    <t>33358656</t>
+  </si>
+  <si>
+    <t>AMANDA MILAGRO UHIA RAMIREZ</t>
+  </si>
+  <si>
+    <t>1129513642</t>
+  </si>
+  <si>
+    <t>KATERINNE MELENDEZ JORDAN</t>
+  </si>
+  <si>
+    <t>1002188323</t>
+  </si>
+  <si>
+    <t>SAIDA AVILA MERCADO</t>
+  </si>
+  <si>
+    <t>1104014437</t>
+  </si>
+  <si>
+    <t>MARCELO DANIEL VALETA ATENCIA</t>
+  </si>
+  <si>
+    <t>1002429569</t>
+  </si>
+  <si>
+    <t>WENDY PATRICIA CARMONA MENDOZA</t>
+  </si>
+  <si>
+    <t>1043965583</t>
+  </si>
+  <si>
+    <t>SAMIR ANDRES MUÃ?OZ ANDRADE</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -503,7 +659,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E617AF1-12B1-C753-5ACB-7EAD9E146417}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F178A04-7B12-7B53-CDC4-B4E866C50435}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -854,8 +1010,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7FF2CB7-0B0B-4928-8F96-770A2EABCD96}">
-  <dimension ref="B2:J26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57119A90-1AD1-4E63-B204-884E1E499A43}">
+  <dimension ref="B2:J63"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -866,7 +1022,7 @@
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
     <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
@@ -879,7 +1035,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -924,7 +1080,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -956,12 +1112,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>20</v>
+        <v>72</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>151421</v>
+        <v>3173014</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -972,17 +1128,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>21</v>
+        <v>73</v>
       </c>
       <c r="C13" s="5">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>22</v>
+        <v>74</v>
       </c>
       <c r="F13" s="5">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1009,13 +1165,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>24</v>
+        <v>76</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>23</v>
+        <v>75</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>25</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1032,10 +1188,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>36341</v>
+        <v>56940</v>
       </c>
       <c r="G16" s="18">
-        <v>908526</v>
+        <v>1423500</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1046,16 +1202,16 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F17" s="18">
-        <v>36341</v>
+        <v>6057</v>
       </c>
       <c r="G17" s="18">
         <v>908526</v>
@@ -1069,13 +1225,13 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F18" s="18">
         <v>36341</v>
@@ -1092,75 +1248,926 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F19" s="18">
-        <v>36341</v>
+        <v>56940</v>
       </c>
       <c r="G19" s="18">
-        <v>908526</v>
+        <v>1423500</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
       <c r="J19" s="20"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B20" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="D20" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="E20" s="22" t="s">
+      <c r="B20" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="F20" s="24">
-        <v>6057</v>
-      </c>
-      <c r="G20" s="24">
-        <v>908526</v>
-      </c>
-      <c r="H20" s="25"/>
-      <c r="I20" s="25"/>
-      <c r="J20" s="26"/>
+      <c r="E20" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G20" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="20"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B21" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G21" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="20"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B22" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" s="18">
+        <v>1898</v>
+      </c>
+      <c r="G22" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="20"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B23" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F23" s="18">
+        <v>1898</v>
+      </c>
+      <c r="G23" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="20"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B24" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F24" s="18">
+        <v>112531</v>
+      </c>
+      <c r="G24" s="18">
+        <v>2813289</v>
+      </c>
+      <c r="H24" s="19"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="20"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B25" s="32" t="s">
+      <c r="B25" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F25" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G25" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="20"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B26" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C25" s="32"/>
-      <c r="H25" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B26" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" s="32"/>
-      <c r="H26" s="1" t="s">
+      <c r="E26" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F26" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G26" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H26" s="19"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="20"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B27" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
+      <c r="D27" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E27" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" s="18">
+        <v>101843</v>
+      </c>
+      <c r="G27" s="18">
+        <v>2546078</v>
+      </c>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="20"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B28" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E28" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" s="18">
+        <v>76162</v>
+      </c>
+      <c r="G28" s="18">
+        <v>2040074</v>
+      </c>
+      <c r="H28" s="19"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="20"/>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B29" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E29" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F29" s="18">
+        <v>36341</v>
+      </c>
+      <c r="G29" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="20"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B30" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E30" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F30" s="18">
+        <v>36341</v>
+      </c>
+      <c r="G30" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H30" s="19"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="20"/>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B31" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E31" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="F31" s="18">
+        <v>36341</v>
+      </c>
+      <c r="G31" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="20"/>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B32" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D32" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E32" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F32" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G32" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H32" s="19"/>
+      <c r="I32" s="19"/>
+      <c r="J32" s="20"/>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B33" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E33" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F33" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G33" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H33" s="19"/>
+      <c r="I33" s="19"/>
+      <c r="J33" s="20"/>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B34" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D34" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E34" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F34" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G34" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H34" s="19"/>
+      <c r="I34" s="19"/>
+      <c r="J34" s="20"/>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B35" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D35" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E35" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F35" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G35" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H35" s="19"/>
+      <c r="I35" s="19"/>
+      <c r="J35" s="20"/>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B36" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D36" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E36" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F36" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G36" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H36" s="19"/>
+      <c r="I36" s="19"/>
+      <c r="J36" s="20"/>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B37" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D37" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E37" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="F37" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G37" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H37" s="19"/>
+      <c r="I37" s="19"/>
+      <c r="J37" s="20"/>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B38" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="D38" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E38" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F38" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G38" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H38" s="19"/>
+      <c r="I38" s="19"/>
+      <c r="J38" s="20"/>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B39" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D39" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="E39" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F39" s="18">
+        <v>166980</v>
+      </c>
+      <c r="G39" s="18">
+        <v>4174497</v>
+      </c>
+      <c r="H39" s="19"/>
+      <c r="I39" s="19"/>
+      <c r="J39" s="20"/>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B40" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D40" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="E40" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F40" s="18">
+        <v>166980</v>
+      </c>
+      <c r="G40" s="18">
+        <v>4174497</v>
+      </c>
+      <c r="H40" s="19"/>
+      <c r="I40" s="19"/>
+      <c r="J40" s="20"/>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B41" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D41" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="E41" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F41" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G41" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H41" s="19"/>
+      <c r="I41" s="19"/>
+      <c r="J41" s="20"/>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B42" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D42" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E42" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F42" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G42" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H42" s="19"/>
+      <c r="I42" s="19"/>
+      <c r="J42" s="20"/>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B43" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D43" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="E43" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F43" s="18">
+        <v>183298</v>
+      </c>
+      <c r="G43" s="18">
+        <v>4582451</v>
+      </c>
+      <c r="H43" s="19"/>
+      <c r="I43" s="19"/>
+      <c r="J43" s="20"/>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B44" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D44" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="E44" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F44" s="18">
+        <v>183298</v>
+      </c>
+      <c r="G44" s="18">
+        <v>4582451</v>
+      </c>
+      <c r="H44" s="19"/>
+      <c r="I44" s="19"/>
+      <c r="J44" s="20"/>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B45" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C45" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D45" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="E45" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F45" s="18">
+        <v>183298</v>
+      </c>
+      <c r="G45" s="18">
+        <v>4582451</v>
+      </c>
+      <c r="H45" s="19"/>
+      <c r="I45" s="19"/>
+      <c r="J45" s="20"/>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B46" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C46" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D46" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="E46" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="F46" s="18">
+        <v>183298</v>
+      </c>
+      <c r="G46" s="18">
+        <v>4582451</v>
+      </c>
+      <c r="H46" s="19"/>
+      <c r="I46" s="19"/>
+      <c r="J46" s="20"/>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B47" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C47" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D47" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="E47" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F47" s="18">
+        <v>168236</v>
+      </c>
+      <c r="G47" s="18">
+        <v>4205901</v>
+      </c>
+      <c r="H47" s="19"/>
+      <c r="I47" s="19"/>
+      <c r="J47" s="20"/>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B48" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C48" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="D48" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="E48" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F48" s="18">
+        <v>83008</v>
+      </c>
+      <c r="G48" s="18">
+        <v>2075199</v>
+      </c>
+      <c r="H48" s="19"/>
+      <c r="I48" s="19"/>
+      <c r="J48" s="20"/>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B49" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="D49" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="E49" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F49" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G49" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H49" s="19"/>
+      <c r="I49" s="19"/>
+      <c r="J49" s="20"/>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B50" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C50" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D50" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="E50" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F50" s="18">
+        <v>112531</v>
+      </c>
+      <c r="G50" s="18">
+        <v>2813289</v>
+      </c>
+      <c r="H50" s="19"/>
+      <c r="I50" s="19"/>
+      <c r="J50" s="20"/>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B51" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="D51" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="E51" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F51" s="18">
+        <v>43654</v>
+      </c>
+      <c r="G51" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H51" s="19"/>
+      <c r="I51" s="19"/>
+      <c r="J51" s="20"/>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B52" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C52" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="D52" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="E52" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F52" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G52" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H52" s="19"/>
+      <c r="I52" s="19"/>
+      <c r="J52" s="20"/>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B53" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C53" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="D53" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="E53" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F53" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G53" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H53" s="19"/>
+      <c r="I53" s="19"/>
+      <c r="J53" s="20"/>
+    </row>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B54" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C54" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="D54" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="E54" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F54" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G54" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H54" s="19"/>
+      <c r="I54" s="19"/>
+      <c r="J54" s="20"/>
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B55" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C55" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="D55" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="E55" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F55" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G55" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H55" s="19"/>
+      <c r="I55" s="19"/>
+      <c r="J55" s="20"/>
+    </row>
+    <row r="56" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B56" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C56" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="D56" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="E56" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F56" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G56" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H56" s="19"/>
+      <c r="I56" s="19"/>
+      <c r="J56" s="20"/>
+    </row>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B57" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C57" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="D57" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="E57" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="F57" s="24">
+        <v>56940</v>
+      </c>
+      <c r="G57" s="24">
+        <v>1423500</v>
+      </c>
+      <c r="H57" s="25"/>
+      <c r="I57" s="25"/>
+      <c r="J57" s="26"/>
+    </row>
+    <row r="62" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B62" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="C62" s="32"/>
+      <c r="H62" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I62" s="1"/>
+      <c r="J62" s="1"/>
+    </row>
+    <row r="63" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B63" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="C63" s="32"/>
+      <c r="H63" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I63" s="1"/>
+      <c r="J63" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="H63:J63"/>
+    <mergeCell ref="H62:J62"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
